--- a/tp1_fisica/mediciones_con_papel.xlsx
+++ b/tp1_fisica/mediciones_con_papel.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qQ1CyUnKIqOthbkW3F4dt9vJfwvPfu8qFkUpymTS/gs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nsDy0UK4MZVje7evhOQMhPD2jqD5HXaZMwGDSaPDcHU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>m</t>
   </si>
@@ -27,12 +27,6 @@
     <t>t, arduino</t>
   </si>
   <si>
-    <t>1000,1306.00</t>
-  </si>
-  <si>
-    <t>1250,1232.00</t>
-  </si>
-  <si>
     <t>1500,1214.00</t>
   </si>
   <si>
@@ -48,21 +42,12 @@
     <t>2500,3068.00</t>
   </si>
   <si>
-    <t>2750,3010.00</t>
-  </si>
-  <si>
-    <t>1250,1214.00</t>
-  </si>
-  <si>
     <t>1750,1390.00</t>
   </si>
   <si>
     <t>2000,2176.00</t>
   </si>
   <si>
-    <t>2250,3446.00</t>
-  </si>
-  <si>
     <t>2500,3430.00</t>
   </si>
   <si>
@@ -72,84 +57,63 @@
     <t>3000,3675.00</t>
   </si>
   <si>
-    <t>250,1214.00</t>
-  </si>
-  <si>
-    <t>500,1288.00</t>
+    <t>1250,1288.00</t>
+  </si>
+  <si>
+    <t>1500,1340.00</t>
+  </si>
+  <si>
+    <t>1750,1740.00</t>
+  </si>
+  <si>
+    <t>2000,2645.00</t>
+  </si>
+  <si>
+    <t>2500,3642.00</t>
+  </si>
+  <si>
+    <t>2750,3837.00</t>
+  </si>
+  <si>
+    <t>1000,1158.00</t>
+  </si>
+  <si>
+    <t>1250,1357.00</t>
+  </si>
+  <si>
+    <t>1500,2050.00</t>
+  </si>
+  <si>
+    <t>1750,2900.00</t>
+  </si>
+  <si>
+    <t>2250,3090.00</t>
   </si>
   <si>
     <t>750,1214.00</t>
   </si>
   <si>
+    <t>1000,1232.00</t>
+  </si>
+  <si>
+    <t>1250,1508.00</t>
+  </si>
+  <si>
+    <t>1500,2189.00</t>
+  </si>
+  <si>
+    <t>1750,2951.00</t>
+  </si>
+  <si>
+    <t>2000,3019.00</t>
+  </si>
+  <si>
+    <t>750,1177.00</t>
+  </si>
+  <si>
     <t>1000,1288.00</t>
   </si>
   <si>
-    <t>1250,1288.00</t>
-  </si>
-  <si>
-    <t>1500,1340.00</t>
-  </si>
-  <si>
-    <t>1750,1740.00</t>
-  </si>
-  <si>
-    <t>2000,2645.00</t>
-  </si>
-  <si>
-    <t>2250,69485.00</t>
-  </si>
-  <si>
-    <t>2500,3642.00</t>
-  </si>
-  <si>
-    <t>2750,3837.00</t>
-  </si>
-  <si>
-    <t>3000,2920.00</t>
-  </si>
-  <si>
-    <t>750,1159.00</t>
-  </si>
-  <si>
-    <t>1000,1158.00</t>
-  </si>
-  <si>
-    <t>1250,1357.00</t>
-  </si>
-  <si>
-    <t>1500,2050.00</t>
-  </si>
-  <si>
-    <t>1750,2900.00</t>
-  </si>
-  <si>
-    <t>2000,2877.00</t>
-  </si>
-  <si>
-    <t>2250,3090.00</t>
-  </si>
-  <si>
-    <t>1000,1232.00</t>
-  </si>
-  <si>
-    <t>1250,1508.00</t>
-  </si>
-  <si>
-    <t>1500,2189.00</t>
-  </si>
-  <si>
-    <t>1750,2951.00</t>
-  </si>
-  <si>
-    <t>2000,3019.00</t>
-  </si>
-  <si>
-    <t>500,1177.00</t>
-  </si>
-  <si>
-    <t>750,1177.00</t>
-  </si>
-  <si>
     <t>1250,1755.00</t>
   </si>
   <si>
@@ -180,9 +144,6 @@
     <t>2250,2941.00</t>
   </si>
   <si>
-    <t>2500,2941.00</t>
-  </si>
-  <si>
     <t>2750,1196.00</t>
   </si>
   <si>
@@ -205,9 +166,6 @@
   </si>
   <si>
     <t>4500,2990.00</t>
-  </si>
-  <si>
-    <t>500,1214.00</t>
   </si>
   <si>
     <t>750,1195.00</t>
@@ -663,34 +621,34 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>111.03</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="C10" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>111.03</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -699,6 +657,12 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>71.6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>133.1</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
@@ -724,17 +688,17 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
-        <v>71.6</v>
-      </c>
-      <c r="B18" s="3">
-        <v>133.1</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B19" s="3">
+        <v>155.25</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -760,6 +724,13 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B24" s="3">
+        <f>22.07+22.15+22.29 + 111.03</f>
+        <v>177.54</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
@@ -794,7 +765,8 @@
         <v>71.6</v>
       </c>
       <c r="B30" s="3">
-        <v>155.25</v>
+        <f>22.29+ 22.07+ 22.15+ 5.36 + 111.03</f>
+        <v>182.9</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>30</v>
@@ -821,6 +793,13 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B35" s="3">
+        <f> 22.29+ 22.07+ 22.15+ 5.36+ 72.184 + 111.03</f>
+        <v>255.084</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
@@ -831,438 +810,353 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B37" s="3">
-        <f>22.07+22.15+22.29 + 111.03</f>
-        <v>177.54</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2">
+        <f> 71.6+ 22.15</f>
+        <v>93.75</v>
+      </c>
+      <c r="B42" s="3">
+        <f>134.6+ 5.36+ 22.29+ 22.07+ 72.184 + 111.03</f>
+        <v>367.534</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B43" s="3">
-        <f>22.29+ 22.07+ 22.15+ 5.36 + 111.03</f>
-        <v>182.9</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B49" s="3">
-        <f> 22.29+ 22.07+ 22.15+ 5.36+ 72.184 + 111.03</f>
-        <v>255.084</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <f>22.07+ 22.15</f>
+        <v>44.22</v>
+      </c>
+      <c r="B50" s="3">
+        <f>22.29+5.36 + 111.03</f>
+        <v>138.68</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="C52" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="C53" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2">
+        <f> 22.29+ 22.07+ 22.15</f>
+        <v>66.51</v>
+      </c>
+      <c r="B56" s="3">
+        <f>5.36+ 71.6 + 72.184 + 111.03</f>
+        <v>260.174</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2">
-        <f> 71.6+ 22.15</f>
-        <v>93.75</v>
-      </c>
-      <c r="B57" s="3">
-        <f>134.6+ 5.36+ 22.29+ 22.07+ 72.184 + 111.03</f>
-        <v>367.534</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="C59" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="C62" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="C63" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
-        <f>22.07+ 22.15</f>
-        <v>44.22</v>
+        <v>71.6</v>
       </c>
       <c r="B65" s="3">
-        <f>22.29+5.36 + 111.03</f>
-        <v>138.68</v>
+        <f> 22.29+ 22.07+ 22.15+ 5.36+ 134.6 + 111.03</f>
+        <v>317.5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="C70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
-        <f> 22.29+ 22.07+ 22.15</f>
-        <v>66.51</v>
+        <f> 22.15+ 22.07</f>
+        <v>44.22</v>
       </c>
       <c r="B72" s="3">
-        <f>5.36+ 71.6 + 72.184 + 111.03</f>
-        <v>260.174</v>
+        <f>71.6+ 22.29+ 5.36 + 111.03</f>
+        <v>210.28</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="C78" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="C79" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="C80" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2">
-        <v>71.6</v>
+      <c r="A81" s="3">
+        <f> 22.15+ 22.07</f>
+        <v>44.22</v>
       </c>
       <c r="B81" s="3">
-        <f> 22.29+ 22.07+ 22.15+ 5.36+ 134.6 + 111.03</f>
-        <v>317.5</v>
+        <f>71.6+ 72.184+ 22.29+ 5.36 + 111.03</f>
+        <v>282.464</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2">
-        <f> 22.15+ 22.07</f>
-        <v>44.22</v>
-      </c>
-      <c r="B88" s="3">
-        <f>71.6+ 22.29+ 5.36 + 111.03</f>
-        <v>210.28</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3">
-        <f> 22.15+ 22.07</f>
-        <v>44.22</v>
-      </c>
-      <c r="B97" s="3">
-        <f>71.6+ 72.184+ 22.29+ 5.36 + 111.03</f>
-        <v>282.464</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
@@ -2138,22 +2032,6 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
